--- a/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
+++ b/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F61A1E0-80CE-4801-AD75-CA177D73A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6EC506-D88B-4698-9E62-307F1DB0842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="6555" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-02-13 17:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WDV621905000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,21 @@
   </si>
   <si>
     <t>재고조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2023-02-13 17:35 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트로 해야 오류가 나지 않음.)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,7 +93,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>비어있으면</t>
+      <t>비어있거나 날짜형식이 아니면</t>
     </r>
     <r>
       <rPr>
@@ -98,10 +109,20 @@
         <sz val="11"/>
         <color rgb="FF1E293B"/>
         <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현시간으</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>금일로</t>
+      <t>로</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +198,19 @@
       <color rgb="FF1E293B"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E293B"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E293B"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,12 +577,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
@@ -570,10 +604,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -588,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>

--- a/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
+++ b/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6EC506-D88B-4698-9E62-307F1DB0842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E879113-3F42-4661-8BAA-3D1E2D341899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,21 +71,6 @@
   </si>
   <si>
     <r>
-      <t>2023-02-13 17:35 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1E293B"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트로 해야 오류가 나지 않음.)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF1E293B"/>
@@ -142,6 +127,21 @@
         <charset val="129"/>
       </rPr>
       <t>자동 입력됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2023-02-13 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트로 해야 오류가 나지 않음.)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,7 +577,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -604,7 +604,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
+++ b/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E879113-3F42-4661-8BAA-3D1E2D341899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF50E4-BCA7-43DA-AA91-144606517320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; 예시데이터는 삭제 후 업로드 해주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
       </rPr>
       <t>텍스트로 해야 오류가 나지 않음.)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,21 +578,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E49B3-BEA6-4E89-9B1B-535FDF43921D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="57" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.75" customWidth="1"/>
+    <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -599,10 +603,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -612,12 +619,15 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -627,10 +637,13 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
+++ b/src/assets/xlsx/업로드양식_재고관리_원자재입고등록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\git\test\q-mes (Korea Nagano)\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF50E4-BCA7-43DA-AA91-144606517320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF6A9BA-6D49-4689-8D2D-1623BD6A30D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="2340" yWindow="1650" windowWidth="20580" windowHeight="14550" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; 예시데이터는 삭제 후 업로드 해주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>입고금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,21 +586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E49B3-BEA6-4E89-9B1B-535FDF43921D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="57" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.75" customWidth="1"/>
+    <col min="2" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -600,50 +606,59 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>100000</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>5000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
